--- a/use case description.xlsx
+++ b/use case description.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Documents\assistant\JR22-1\TPA\desktop\diagram JR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Documents\GitHub\TPA-Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107FCD3A-DE1A-4C36-B884-E29A2AB8DC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FC9CF1-DC0C-4BBE-850E-22CC3B5CFC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C574B611-EFB0-4ED0-B047-35EEF628E087}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
   <si>
     <t>Delete workspace</t>
   </si>
@@ -156,20 +156,6 @@
     <t>1. User click the delete button</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 system validate the user if the user is the only admin or not
-1.1.1 if the user is the only admin then get all of the workspace member
-1.1.1.1 remove workspaceID from the user workspaceID list
-1.1.1.2 remove the user from the workspace member
-1.1.1.3 add boardID to closed board ID listt
-1.1.2 if there are other workspace admin ask for their permission to delete the board
-1.1.2.1 push notification to the other admin
-1.1.2.1.1 if not every admin gave their permission the deletion is cancelled
-1.1.2.1.2 if every admin gave their permission the deletion process will continue
-1.1.2.1.2.1 remove the workspaceIID from the user workspace list
-1.1.2.1.2.2 remove user from the workspace member
-</t>
-  </si>
-  <si>
     <t>a workspace member click the leave workspace button</t>
   </si>
   <si>
@@ -184,15 +170,7 @@
     <t>workspace admin choose an option to invite a user</t>
   </si>
   <si>
-    <t xml:space="preserve">-user that want to leave the workspace is a workspace member
--user that want to leave the workspace is either the only admin
--user that want to leave the workspace is one of the admin </t>
-  </si>
-  <si>
     <t>actor</t>
-  </si>
-  <si>
-    <t>workspace member, other workspace admin</t>
   </si>
   <si>
     <t>View workspace, delete workspace</t>
@@ -202,35 +180,7 @@
 -the workspace will be deleted if there are no other member</t>
   </si>
   <si>
-    <t>1. User clck the leave button
-1.2.1.2 the user will assign a member to an admin</t>
-  </si>
-  <si>
-    <t>1.1 if the user is a member, the system will 
-remove the user from the workspace
-1.1.1 system will remove the workspace from the user workspace list
-1.2 if the user is the only admin and there are other member, the sytem will ask the user wether the user want to delete the workspace or not
-1.2.1 if the user choose to delete, than all of the member will be removed from the workspace 
-1.2.2 if there are any remaining boards, the board will be moved to closed board
-1.2.3 the workspace will be deleted
-1.2.1.1 if the user choose not to delete the workspace, the system will ask the user to give the admin role to a member
-1.2.1.3 the system will make the choosen user to an admin
-1.2.1.4 the system will remove the user from the workspace
-1.2.1.5 the system will remove the workspace from the user workspace list
-1.3 if the user is the only admin and there are no other member, the remaining board will be moved to closed board
-1.3.1 the workspace will be deleted
-1.3.2 the system will remove the user from the workspace
-1.3.3 The system will remove the workspace from the user workspace list
-1.4 if there are more than 1 admin,  the system will remove the user from the workspace
-1.4.1 The system will remove the workspace from the user workspace list</t>
-  </si>
-  <si>
     <t>view worspace, invite workspace</t>
-  </si>
-  <si>
-    <t>-a user join a workspace trough a invitation notification (email)
--a user join a workspace through invitation link
--a user join a public workspace</t>
   </si>
   <si>
     <t>-a user click the invitation link 
@@ -300,29 +250,6 @@
 -invitation link generated and showed to the admin</t>
   </si>
   <si>
-    <t>1.1 system show the option to invite user
-2.1. system generate an invite link
-2.1. 1system show the invite link to the admin
-2.2.1 system ask for an email
-2.2.3 system will check the email in the database
-2.2.5 check if the user is already a member of the workspace
-2.2.7 if user is not a member invite the user via email
-2.2.8 add the invite notification to the user notification list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. workspace admin click the invite button
-2. admin choose to invite with generated link
-2.1.2
-2.1 admin choose a due date for the link
-2.2. admin choose to invite with email
-2.2.2 user input the email </t>
-  </si>
-  <si>
-    <t>2.1.2 the due date already passed
-2.2.3 the invited email is already invited to the workspace
-2.2.5 the invited email is alrady a member of the workspace</t>
-  </si>
-  <si>
     <t>-a user click the leave workspace button
 -the system will check the user role and the other member of the workspace
 -the system will apply the rule to leave based on the validation
@@ -342,34 +269,6 @@
 1.3 User got an invitation through invitation link</t>
   </si>
   <si>
-    <t>1.1 the system will add the workspace ID to the user worksapce list ID
-1.1.1 the system will add the user ID to the workspace userID list
-1.1.2 the system will notify all of the workspace member that a new member has joined the workspace
-1.2.1 the system will show the accept or reject option through CHello
-1.2.1.1 if the user choose to accept, the user will search the workspace that the user got invited 
-1.2.1.2 the system will add the user ID to the board member id list
-1.2.1.3 the system will add the board id to the user board id list
-1.2.3 add the user id to the workspace member id list
-1.2.3.1 add the workspace ID to the user workspace id list
-1.3.1 get the ID of the document from the link
-1.3.2 compare the access time stamp and the time stamp when the document is created
-1.3.3 find the workspace
-1.3.3.1 add the user id to the workspace member id list
-1.3.3.2 add the workspace ID to the user workspace id list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 if the user click reject on the choose option
-1.2.1.2 if the user is already a member of the workspace
-1.2.2.2 if the user is already a member of the workspace
-1.3.2.1 if the link already expired 
-1.3.3 if the user is a member of the workspace </t>
-  </si>
-  <si>
-    <t>-view board detail by a board member
--view board detail by a board admin
--view board detail by a non board member</t>
-  </si>
-  <si>
     <t>-user want to view a board</t>
   </si>
   <si>
@@ -382,16 +281,136 @@
     <t>user choose a certain worksapce</t>
   </si>
   <si>
-    <t xml:space="preserve">1. User choose a certain board
+    <t>board member, user</t>
+  </si>
+  <si>
+    <t>2.2.5 the invited email is already invited to the workspace
+2.2.5 the invited email is alrady a member of the workspace</t>
+  </si>
+  <si>
+    <t>workspace member, workspace admin</t>
+  </si>
+  <si>
+    <t>workspace member click the leave button on the workspace</t>
+  </si>
+  <si>
+    <t>user join a workspace through invitation or a public workspace</t>
+  </si>
+  <si>
+    <t>a board member or a user view a board\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. workspace admin click the invite button
+2. admin choose to invite with generated link
+2.1.1 admin input the due date
+2.1.2.2 the admin send the link to the user
+2.2 admin choose to invite with email
+2.2.2 user input the email </t>
+  </si>
+  <si>
+    <t>1.1 system get the workspace data
+1.1.1 system show the option to invite user
+2.1 system ask the due date for the link
+2.1.1.1 system generate an invite link
+2.1.1.2 system save the invitation link and the expired date 
+2.1.2 system show the invite link to the admin
+2.2.1 system ask for an email
+2.2.3 system will check the email in the database
+2.2.4  invite the user via email
+2.2.5 add the invite notification to the user notification list</t>
+  </si>
+  <si>
+    <t>1.1 system get the workspace data
+1.1.1 system validate the user if the user is the only admin or not
+1.1.2 if the user is the only admin validate if there are other member
+1.1.2.1 if there are other member remove workspaceID from the member workspaceID list
+1.1.2.2 remove the member from the workspace member
+1.1.2.3 validate if there are remaining board in the workspace
+1.1.2.3.1 add boardID to closed board ID listt
+1.1.2.4 update workspace to deleted workspace
+1.1.3 if there are other workspace admin ask for their permission to delete the board
+1.1.3.1 push notification to the other admin
+1.1.3.1.1 if not every admin gave their permission the deletion is cancelled
+1.1.3.1.2 if every admin gave their permission the deletion process will continue
+1.1.3.1.3 validate if there are other member
+1.1.3.1.4 if there are other member remove workspaceID from the member workspaceID list
+1.1.3.1.5 remove the member from the workspace member
+1.1.3.2 validate if there are remaining board in the workspace
+1.1.3.2.1 add boardID to closed board ID listt
+1.1.3.3 update workspace to deleted workspace</t>
+  </si>
+  <si>
+    <t>1.1 the system add the workspace ID to the user worksapce list ID
+1.1.1 the system add the user ID to the workspace userID list
+1.1.2 the system notify all of the workspace member that a new member has joined the workspace
+1.2.1 the system show the accept or reject option through CHello
+1.2.1.1 if the user choose to accept, the system get the workspace that the user got invited 
+1.2.1.2 get the ID of the document from the link
+1.2.1.3 the system compare the access time stamp and the created date
+1.2.2 add the user id to the workspace member id list
+1.2.2.1 add the workspace ID to the user workspace id list
+1.3.1 the system show the accept or reject option through CHello
+1.3.1.1 if the user choose to accept, the system get the workspace that the user got invited 
+1.3.1.2 get the ID of the document from the link
+1.3.1.3 compare the access time stamp and the time stamp when the document is created
+1.3.2.1 add the user id to the workspace member id list
+1.3.2.2 add the workspace ID to the user workspace id list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 if the user click reject on the choose option
+1.2.1.2 if the user is already a member of the workspace
+1.3.1.2 if the user is already a member of the workspace
+1.2.1.3 if the link already expired 
+1.3.1.3 if the link already expired </t>
+  </si>
+  <si>
+    <t>1.1 get workspacce
+1.1.1 the system will validate the user role on that board
+1.1.2 display choosen workspace detail
+1.1.4 get board
+1.1.5 display choosen board detail
+1.1.6 check the user role on the workspace
+1.1.7 if user is a member display option to create list
+1.1.8 check if the user is an admin on the workspace
+1.1.8.1 if the user is a board admin show the delete board option 
+1.1.8.2 display the invite to member option
+1.1.9 validate if the board is editted
+1.1.9.1 if the board is editted add realtime data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User choose a certain worksapce
+1.1.3 user choose a certain board
 </t>
   </si>
   <si>
-    <t>1.1 the system will validate the user role on that board
-1.1.1 if the user is not a board member show the join option
-1.1.2 if the user is a board member show the edit list and create list option
-1.1.3 if the user is a board admin show the edit list and create list option, invite member, remove member, grant revoke member, and delete board
-2.2 the system will show the choose board content
-2.2.1 the system wll apply the rule based on the user role</t>
+    <t>1. User clck the leave button
+1.2.1.2 user input the option
+1.2.2.1 select the other memebr to be granted the admin role (user)</t>
+  </si>
+  <si>
+    <t>1.1 the system get the workspace data
+1.1.1 if the user is a member, the system remove the user from the workspace
+1.1.2 system remove the workspace from the user workspace list
+1.1.3 system remove the user from the workspace member list
+1.2 if the user is an admin validate if there are other admin
+1.2.1 if the user is an admin, validate if there are other member
+1.2.1.1 if there are no other member ask the user to delete the workspace
+1.2.1.2.1 if the user choose not to delete the workspace, cancel the leave process
+1.2.1.2.2 if the user choose to delete the workspace, remove workspace from the member workspace list
+1.2.1.2.2.1 validate if the workspace is removed from all member workspace list
+1.2.1.2.2.1.1 if the workspace isn't removed from all member workspace list remove workspace from the member workspace list
+1.2.1.2.2.2 if the workspace is removed from all member workspace list, remove the member from the workspace member list
+1.2.1.2.2.2.1 if all of the member haven't removed from the workspace member list, remove the member from the workspace member list
+1.2.1.2.3 if all of the member is removed from the workspace member list, remove the workspace from the user workspace list
+1.2.1.2.3.1 remove the user from the workspace member list 
+1.2.1.2.3.2 delete the workspace
+1.2.2 if there are other member ask the user to grant other member the admin role
+1.2.2.2 set selected member tole to an admin
+1.2.2.2.1 remove the workspace from the user workspace list
+1.2.1.2.2 remove the user from the workspace member list
+1.3 if there are other admin
+1.3.1 remove the worksapce from the suer workspace list
+1.3.2 remove the user from the worksapce member list</t>
   </si>
 </sst>
 </file>
@@ -567,6 +586,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -642,12 +664,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,30 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,9 +731,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1034,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812CDE3C-ABDA-432E-8330-545695844CB6}">
-  <dimension ref="C3:V109"/>
+  <dimension ref="C3:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1068,7 @@
     <col min="5" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="20.5703125" style="2" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="59.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="116.5703125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1059,774 +1078,774 @@
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="3:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="3:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="3:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="3:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="38" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="3:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="3:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="38" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="3:11" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="3:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="26" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="3:11" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="3:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="37" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="38" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="3:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="3:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="3:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="3:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="20" t="s">
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
-    </row>
-    <row r="31" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30" t="s">
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="3:11" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="3:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="8"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="37" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
       <c r="K41" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="3:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="20" t="s">
+    <row r="42" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="38" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="25"/>
+    </row>
+    <row r="44" spans="3:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="25"/>
+    </row>
+    <row r="45" spans="3:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="50"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="24"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="20" t="s">
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="25"/>
+    </row>
+    <row r="48" spans="3:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="25"/>
+    </row>
+    <row r="49" spans="3:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="3:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="3:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="3:22" ht="374.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="3:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O60" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="24"/>
+      <c r="V60" s="25"/>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O61" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
+      <c r="V61" s="25"/>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O62" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
-    </row>
-    <row r="44" spans="3:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="20" t="s">
+      <c r="P62" s="22"/>
+      <c r="Q62" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="25"/>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O63" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" spans="3:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="49"/>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="20" t="s">
+      <c r="P63" s="22"/>
+      <c r="Q63" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="25"/>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O64" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="24"/>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="20" t="s">
+      <c r="P64" s="22"/>
+      <c r="Q64" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="25"/>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O65" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
-    </row>
-    <row r="48" spans="3:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="20" t="s">
+      <c r="P65" s="22"/>
+      <c r="Q65" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="25"/>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O66" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="24"/>
-    </row>
-    <row r="49" spans="3:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="20" t="s">
+      <c r="P66" s="22"/>
+      <c r="Q66" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="25"/>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O67" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="24"/>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C50" s="26" t="s">
+      <c r="P67" s="22"/>
+      <c r="Q67" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="25"/>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O68" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="30" t="s">
+      <c r="P68" s="28"/>
+      <c r="Q68" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30" t="s">
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="3:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="3:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
-    </row>
-    <row r="54" spans="3:22" ht="277.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="39"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" spans="3:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-    </row>
-    <row r="56" spans="3:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O60" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="24"/>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O61" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="24"/>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O62" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="24"/>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O63" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="24"/>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O64" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="24"/>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O65" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="R65" s="23"/>
-      <c r="S65" s="23"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="24"/>
-    </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O66" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="24"/>
-    </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O67" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R67" s="23"/>
-      <c r="S67" s="23"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="24"/>
-    </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O68" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
     </row>
     <row r="69" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O69" s="39"/>
-      <c r="P69" s="40"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="30"/>
       <c r="Q69" s="53" t="s">
         <v>13</v>
       </c>
@@ -1839,474 +1858,488 @@
       <c r="V69" s="53"/>
     </row>
     <row r="70" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O70" s="39"/>
-      <c r="P70" s="40"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="30"/>
       <c r="Q70" s="53" t="s">
         <v>24</v>
       </c>
       <c r="R70" s="53"/>
       <c r="S70" s="53"/>
-      <c r="T70" s="51" t="s">
+      <c r="T70" s="3" t="s">
         <v>25</v>
       </c>
       <c r="U70" s="53"/>
       <c r="V70" s="53"/>
     </row>
     <row r="71" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O71" s="39"/>
-      <c r="P71" s="40"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="30"/>
       <c r="Q71" s="53"/>
       <c r="R71" s="53"/>
       <c r="S71" s="53"/>
-      <c r="T71" s="51" t="s">
+      <c r="T71" s="3" t="s">
         <v>26</v>
       </c>
       <c r="U71" s="53"/>
       <c r="V71" s="53"/>
     </row>
     <row r="72" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O72" s="26" t="s">
+      <c r="O72" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="22" t="s">
+      <c r="P72" s="28"/>
+      <c r="Q72" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="R72" s="23"/>
-      <c r="S72" s="23"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="25"/>
     </row>
     <row r="73" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O73" s="28"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="22" t="s">
+      <c r="O73" s="31"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="R73" s="23"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="25"/>
     </row>
     <row r="76" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="45"/>
+      <c r="D76" s="46"/>
     </row>
     <row r="77" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="37" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="25"/>
       <c r="K77" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="3:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="20" t="s">
+    <row r="78" spans="3:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="47"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="48"/>
     </row>
     <row r="79" spans="3:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="24"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="25"/>
     </row>
     <row r="80" spans="3:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="44"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="37"/>
     </row>
     <row r="81" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="49"/>
+      <c r="C81" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="22"/>
+      <c r="E81" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="50"/>
     </row>
     <row r="82" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="24"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="25"/>
     </row>
     <row r="83" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="24"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="25"/>
     </row>
     <row r="84" spans="3:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="44"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="37"/>
     </row>
     <row r="85" spans="3:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="44"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="37"/>
     </row>
     <row r="86" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="27"/>
-      <c r="E86" s="20" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="41"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="20" t="s">
+      <c r="F86" s="33"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I86" s="41"/>
-      <c r="J86" s="21"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="22"/>
     </row>
     <row r="87" spans="3:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="39"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="5"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6"/>
     </row>
     <row r="88" spans="3:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="39"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="19"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
     </row>
     <row r="89" spans="3:15" ht="291" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="28"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="8"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="9"/>
     </row>
     <row r="90" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="27"/>
-      <c r="E90" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="3:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="8"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91" spans="3:15" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="31"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="9"/>
     </row>
     <row r="93" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
     </row>
     <row r="95" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="37" t="s">
+      <c r="D95" s="22"/>
+      <c r="E95" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="25"/>
       <c r="K95" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="3:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="20" t="s">
+    <row r="96" spans="3:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="24"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="25"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="24"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="25"/>
     </row>
     <row r="98" spans="3:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="24"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="25"/>
     </row>
     <row r="99" spans="3:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="21"/>
-      <c r="E99" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="24"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C100" s="20" t="s">
+      <c r="D99" s="22"/>
+      <c r="E99" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="25"/>
+    </row>
+    <row r="100" spans="3:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="22"/>
+      <c r="E100" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="37"/>
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C101" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="25" t="s">
+      <c r="D101" s="22"/>
+      <c r="E101" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="24"/>
-    </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C101" s="20" t="s">
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="25"/>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C102" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="21"/>
-      <c r="E101" s="22" t="s">
+      <c r="D102" s="22"/>
+      <c r="E102" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="25"/>
+    </row>
+    <row r="103" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="22"/>
+      <c r="E103" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="25"/>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C104" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="39"/>
+      <c r="J104" s="39"/>
+    </row>
+    <row r="105" spans="3:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="24"/>
-    </row>
-    <row r="102" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="24"/>
-    </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C103" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" s="30"/>
-      <c r="J103" s="30"/>
-    </row>
-    <row r="104" spans="3:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I104" s="4"/>
-      <c r="J104" s="5"/>
-    </row>
-    <row r="105" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="19"/>
-    </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="19"/>
-    </row>
-    <row r="107" spans="3:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C108" s="26" t="s">
+      <c r="I105" s="5"/>
+      <c r="J105" s="6"/>
+    </row>
+    <row r="106" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="3:10" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C109" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D108" s="27"/>
-      <c r="E108" s="31" t="s">
+      <c r="D109" s="28"/>
+      <c r="E109" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="33"/>
-    </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C109" s="28"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="36"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="42"/>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C110" s="31"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="156">
+  <mergeCells count="158">
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="E81:J81"/>
     <mergeCell ref="C9:D9"/>
@@ -2424,13 +2457,13 @@
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:J25"/>
-    <mergeCell ref="C108:D109"/>
-    <mergeCell ref="C103:D107"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:J102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="E108:J109"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="C104:D108"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:J103"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="E109:J110"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="E95:J95"/>
     <mergeCell ref="C96:D96"/>
@@ -2439,16 +2472,18 @@
     <mergeCell ref="E97:J97"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="E98:J98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:J100"/>
     <mergeCell ref="E18:J19"/>
     <mergeCell ref="E36:J37"/>
-    <mergeCell ref="E104:G107"/>
-    <mergeCell ref="H104:J107"/>
+    <mergeCell ref="E105:G108"/>
+    <mergeCell ref="H105:J108"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="E99:J99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:J100"/>
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="E101:J101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:J102"/>
     <mergeCell ref="E90:J91"/>
     <mergeCell ref="C86:D89"/>
     <mergeCell ref="E86:G86"/>
